--- a/documentation/classes.xlsx
+++ b/documentation/classes.xlsx
@@ -434,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
